--- a/data/output/FV2504_FV2410/PRICAT/27002.xlsx
+++ b/data/output/FV2504_FV2410/PRICAT/27002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="313">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="313">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1123,6 +1123,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U117" totalsRowShown="0">
+  <autoFilter ref="A1:U117"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1412,7 +1442,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7006,5 +7039,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/PRICAT/27002.xlsx
+++ b/data/output/FV2504_FV2410/PRICAT/27002.xlsx
@@ -1443,7 +1443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1466,6 +1466,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1474,6 +1477,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1918,7 +1924,7 @@
         <v>263</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2284,7 +2290,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2540,7 +2546,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2744,7 +2750,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -2950,7 +2956,7 @@
         <v>268</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3152,7 +3158,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3352,7 +3358,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3672,7 +3678,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3992,7 +3998,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4180,24 +4186,24 @@
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8" t="s">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>283</v>
       </c>
       <c r="M46" s="5"/>
@@ -4215,33 +4221,33 @@
       <c r="A47" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" s="10" t="s">
         <v>283</v>
       </c>
       <c r="M47" s="5"/>
@@ -4259,33 +4265,33 @@
       <c r="A48" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>283</v>
       </c>
       <c r="M48" s="5"/>
@@ -4303,31 +4309,31 @@
       <c r="A49" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>283</v>
       </c>
       <c r="M49" s="5"/>
@@ -4345,31 +4351,31 @@
       <c r="A50" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
         <v>283</v>
       </c>
       <c r="M50" s="5"/>
@@ -4387,31 +4393,31 @@
       <c r="A51" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>283</v>
       </c>
       <c r="M51" s="5"/>
@@ -4429,31 +4435,31 @@
       <c r="A52" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>283</v>
       </c>
       <c r="M52" s="5"/>
@@ -4481,29 +4487,29 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11" t="s">
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11" t="s">
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="V53" s="11"/>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
@@ -4519,33 +4525,33 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11" t="s">
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="U54" s="11" t="s">
+      <c r="U54" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="V54" s="11" t="s">
+      <c r="V54" s="13" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4563,35 +4569,35 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="U55" s="11" t="s">
+      <c r="U55" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="V55" s="11"/>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4607,33 +4613,33 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11" t="s">
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U56" s="11" t="s">
+      <c r="U56" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="V56" s="11"/>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4649,33 +4655,33 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11" t="s">
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="U57" s="11" t="s">
+      <c r="U57" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="V57" s="11"/>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4691,33 +4697,33 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11" t="s">
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="U58" s="11" t="s">
+      <c r="U58" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="V58" s="11"/>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -4733,33 +4739,33 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11" t="s">
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11" t="s">
+      <c r="S59" s="13"/>
+      <c r="T59" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="U59" s="11" t="s">
+      <c r="U59" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="V59" s="11"/>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="2" t="s">
@@ -4784,7 +4790,7 @@
         <v>272</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5054,7 +5060,7 @@
         <v>272</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5202,7 +5208,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5506,54 +5512,54 @@
       </c>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="2" t="s">
         <v>276</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O74" s="5" t="s">
+      <c r="O74" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P74" s="5"/>
+      <c r="P74" s="2"/>
       <c r="Q74" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V74" s="5" t="s">
+      <c r="V74" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5734,54 +5740,54 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="2"/>
       <c r="F78" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K78" s="5" t="s">
+      <c r="K78" s="2" t="s">
         <v>276</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O78" s="5" t="s">
+      <c r="O78" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P78" s="5"/>
+      <c r="P78" s="2"/>
       <c r="Q78" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V78" s="5" t="s">
+      <c r="V78" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7172,21 +7178,21 @@
       </c>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
       <c r="J104" s="6" t="s">
         <v>239</v>
       </c>
@@ -7194,18 +7200,18 @@
       <c r="L104" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M104" s="5" t="s">
+      <c r="M104" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N104" s="5" t="s">
+      <c r="N104" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
       <c r="U104" s="6" t="s">
         <v>304</v>
       </c>
@@ -7459,29 +7465,29 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="N109" s="11" t="s">
+      <c r="N109" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="P109" s="11"/>
-      <c r="Q109" s="11" t="s">
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11"/>
-      <c r="U109" s="11" t="s">
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13"/>
+      <c r="U109" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="V109" s="11" t="s">
+      <c r="V109" s="13" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7499,35 +7505,35 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="L110" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M110" s="11" t="s">
+      <c r="M110" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="N110" s="11" t="s">
+      <c r="N110" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O110" s="11" t="s">
+      <c r="O110" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="P110" s="11" t="s">
+      <c r="P110" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="Q110" s="11" t="s">
+      <c r="Q110" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="R110" s="11" t="s">
+      <c r="R110" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11" t="s">
+      <c r="S110" s="13"/>
+      <c r="T110" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="U110" s="11" t="s">
+      <c r="U110" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="V110" s="11"/>
+      <c r="V110" s="13"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -7543,35 +7549,35 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M111" s="11" t="s">
+      <c r="M111" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="N111" s="11" t="s">
+      <c r="N111" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O111" s="11" t="s">
+      <c r="O111" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="P111" s="11" t="s">
+      <c r="P111" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Q111" s="11" t="s">
+      <c r="Q111" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="R111" s="11" t="s">
+      <c r="R111" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11" t="s">
+      <c r="S111" s="13"/>
+      <c r="T111" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="U111" s="11" t="s">
+      <c r="U111" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="V111" s="11"/>
+      <c r="V111" s="13"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="5" t="s">
@@ -7587,33 +7593,33 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="10" t="s">
+      <c r="L112" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M112" s="11" t="s">
+      <c r="M112" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="N112" s="11" t="s">
+      <c r="N112" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O112" s="11" t="s">
+      <c r="O112" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="P112" s="11" t="s">
+      <c r="P112" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="11" t="s">
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11" t="s">
+      <c r="S112" s="13"/>
+      <c r="T112" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="U112" s="11" t="s">
+      <c r="U112" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="V112" s="11"/>
+      <c r="V112" s="13"/>
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="5" t="s">
@@ -7629,33 +7635,33 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="10" t="s">
+      <c r="L113" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M113" s="11" t="s">
+      <c r="M113" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="N113" s="11" t="s">
+      <c r="N113" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="P113" s="11" t="s">
+      <c r="P113" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="Q113" s="11" t="s">
+      <c r="Q113" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11" t="s">
+      <c r="R113" s="13"/>
+      <c r="S113" s="13"/>
+      <c r="T113" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="U113" s="11" t="s">
+      <c r="U113" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="V113" s="11" t="s">
+      <c r="V113" s="13" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7673,79 +7679,79 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
-      <c r="L114" s="10" t="s">
+      <c r="L114" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M114" s="11" t="s">
+      <c r="M114" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="N114" s="11" t="s">
+      <c r="N114" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O114" s="11" t="s">
+      <c r="O114" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="P114" s="11" t="s">
+      <c r="P114" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="Q114" s="11" t="s">
+      <c r="Q114" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="R114" s="11"/>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11" t="s">
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
+      <c r="T114" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="U114" s="11" t="s">
+      <c r="U114" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="V114" s="11" t="s">
+      <c r="V114" s="13" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5" t="s">
+      <c r="C115" s="2"/>
+      <c r="D115" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="2"/>
       <c r="F115" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5" t="s">
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K115" s="5"/>
+      <c r="K115" s="2"/>
       <c r="L115" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M115" s="5" t="s">
+      <c r="M115" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5" t="s">
+      <c r="N115" s="2"/>
+      <c r="O115" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P115" s="5"/>
+      <c r="P115" s="2"/>
       <c r="Q115" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5" t="s">
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V115" s="5"/>
+      <c r="V115" s="2"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="5" t="s">
